--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -223,7 +224,23 @@
     <t xml:space="preserve">ICON</t>
   </si>
   <si>
-    <t xml:space="preserve">SORT</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SORT</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">choerodon.code.microservice</t>
@@ -416,6 +433,15 @@
   </si>
   <si>
     <t xml:space="preserve">manager-service.statistic.queryMenuClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ROLE_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/site/default/administrator</t>
   </si>
   <si>
     <t xml:space="preserve">FD_CATEGORY_MENU</t>
@@ -437,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -478,11 +504,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -549,7 +585,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,11 +606,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,8 +701,8 @@
   </sheetPr>
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1051,8 +1095,8 @@
   </sheetPr>
   <dimension ref="D7:P21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1108,7 +1152,7 @@
       <c r="N7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -1116,243 +1160,243 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="L12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="L13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="L14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,37 +1404,37 @@
       <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,160 +1442,160 @@
       <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="L16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="6" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="L17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="6" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="J18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="L18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="L19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="6" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="J20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="L20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1575,7 +1619,7 @@
   <dimension ref="D7:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,134 +1652,134 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,13 +1787,13 @@
       <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1757,34 +1801,34 @@
       <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1800,6 +1844,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D7:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1823,27 +1947,27 @@
   <sheetData>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>110</v>
+      <c r="H7" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1852,9 +1976,9 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>85</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1863,9 +1987,9 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1874,9 +1998,9 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>90</v>
       </c>
       <c r="H11" s="3" t="s">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
@@ -229,6 +229,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@</t>
     </r>
@@ -453,7 +454,7 @@
     <t xml:space="preserve">#RESOURCE_LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DEFAULT</t>
+    <t xml:space="preserve">AGILE</t>
   </si>
 </sst>
 </file>
@@ -463,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -504,11 +505,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
@@ -517,15 +513,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -606,20 +602,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1091,7 @@
   </sheetPr>
   <dimension ref="D7:P21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1856,10 +1852,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.18"/>
@@ -1881,7 +1877,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1889,7 +1885,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1897,7 +1893,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1905,7 +1901,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1930,8 +1926,8 @@
   </sheetPr>
   <dimension ref="D6:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1947,24 +1943,24 @@
   <sheetData>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1975,7 +1971,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1986,7 +1982,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1997,7 +1993,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G11" s="6" t="s">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="IAM_ROLE_PERMISSION" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="111">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -444,18 +443,6 @@
   <si>
     <t xml:space="preserve">role/site/default/administrator</t>
   </si>
-  <si>
-    <t xml:space="preserve">FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGILE</t>
-  </si>
 </sst>
 </file>
 
@@ -464,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -511,18 +498,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,27 +507,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -581,7 +541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -610,14 +570,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -627,66 +579,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA3A3A3"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1846,7 +1738,7 @@
   </sheetPr>
   <dimension ref="D7:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1855,7 +1747,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.18"/>
@@ -1908,109 +1800,6 @@
         <v>31</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D6:H1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="3" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="34.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="52.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="3" width="8.79"/>
-  </cols>
-  <sheetData>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binjiechen/manager-service/src/main/resources/script/meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCC110-4CAF-F54F-9316-1B9117046D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="31320" windowHeight="15900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -84,9 +89,6 @@
   </si>
   <si>
     <t>choerodon.route.statistics.menu-report</t>
-  </si>
-  <si>
-    <t>/manager/site-statistics</t>
   </si>
   <si>
     <t>菜单分析路由</t>
@@ -128,7 +130,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>SORT</t>
     </r>
@@ -234,19 +236,55 @@
   </si>
   <si>
     <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.api-statistics</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>API统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>API Statistics</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.statistics.api</t>
+  </si>
+  <si>
+    <t>choerodon.route.statistics.api</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/site-statistics</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/api-statistics</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平台接口统计路由</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -260,387 +298,59 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="PingFang SC"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -648,241 +358,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -896,61 +374,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1208,39 +642,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="2.96190476190476" customWidth="1"/>
-    <col min="3" max="3" width="3.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="3.796875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="43.3809523809524" customWidth="1"/>
-    <col min="7" max="7" width="33.7904761904762" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="43.3984375" customWidth="1"/>
+    <col min="7" max="7" width="33.796875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.2" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1904761904762" customWidth="1"/>
-    <col min="13" max="13" width="18.8" customWidth="1"/>
-    <col min="14" max="14" width="19.3809523809524" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="16" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="13" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="13" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15" ht="14">
       <c r="D8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1308,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1337,12 +771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>14</v>
@@ -1351,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>17</v>
@@ -1366,9 +800,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="4:15">
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1377,36 +841,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.3047619047619" customWidth="1"/>
-    <col min="2" max="2" width="5.27619047619048" customWidth="1"/>
-    <col min="3" max="3" width="3.44761904761905" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="45.1809523809524" customWidth="1"/>
-    <col min="7" max="7" width="14.0285714285714" customWidth="1"/>
-    <col min="8" max="8" width="28.1904761904762" customWidth="1"/>
-    <col min="9" max="9" width="58.9142857142857" customWidth="1"/>
-    <col min="10" max="10" width="18.5904761904762" customWidth="1"/>
-    <col min="11" max="11" width="34.1809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.1904761904762" customWidth="1"/>
-    <col min="13" max="13" width="14.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="18.8857142857143" customWidth="1"/>
-    <col min="15" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="45.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" customWidth="1"/>
+    <col min="9" max="9" width="59" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="11" max="11" width="34.19921875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.796875" customWidth="1"/>
+    <col min="15" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1415,76 +878,76 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" spans="4:16" ht="19">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="O8" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:15">
+    <row r="9" spans="4:16" ht="19">
       <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>12</v>
@@ -1493,30 +956,30 @@
         <v>14</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="O9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:15">
+    <row r="10" spans="4:16" ht="19">
       <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>18</v>
@@ -1525,56 +988,89 @@
         <v>14</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:15">
+    <row r="11" spans="4:16" ht="19">
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="O11" s="5">
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="4:16" ht="19">
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="5">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1583,153 +1079,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.92380952380952" customWidth="1"/>
-    <col min="2" max="2" width="5.6952380952381" customWidth="1"/>
-    <col min="3" max="3" width="5.55238095238095" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.9904761904762" customWidth="1"/>
-    <col min="7" max="7" width="57.9428571428571" customWidth="1"/>
-    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="5.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="7" max="7" width="58" customWidth="1"/>
+    <col min="8" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:7">
+    <row r="8" spans="4:8" ht="19">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="4:7">
+    <row r="9" spans="4:8" ht="19">
       <c r="D9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="4:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="19">
       <c r="D10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="6:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="19">
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:7">
+    <row r="12" spans="4:8" ht="19">
       <c r="F12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="19">
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:7">
-      <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="6" t="s">
+    <row r="14" spans="4:8" ht="19">
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="19">
+      <c r="F15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:7">
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6" t="s">
+    <row r="16" spans="4:8" ht="19">
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:7">
-      <c r="F15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="6" t="s">
+    <row r="17" spans="6:7" ht="19">
+      <c r="F17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:7">
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="6" t="s">
+    <row r="18" spans="6:7" ht="19">
+      <c r="F18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="6:7">
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="6" t="s">
+    <row r="19" spans="6:7" ht="19">
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" ht="19">
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:7">
-      <c r="F18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="6:7">
-      <c r="F19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="6" t="s">
+    <row r="21" spans="6:7" ht="19">
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:7">
-      <c r="F20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1738,66 +1241,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.54285714285714" customWidth="1"/>
-    <col min="2" max="2" width="5.41904761904762" customWidth="1"/>
-    <col min="3" max="3" width="6.94285714285714" customWidth="1"/>
-    <col min="4" max="4" width="23.0761904761905" customWidth="1"/>
-    <col min="5" max="5" width="8.05714285714286" customWidth="1"/>
-    <col min="6" max="6" width="28.3428571428571" customWidth="1"/>
-    <col min="7" max="7" width="44.1809523809524" customWidth="1"/>
-    <col min="8" max="1025" width="11.5238095238095"/>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" customWidth="1"/>
+    <col min="7" max="7" width="44.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="F8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="4:7">
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binjiechen/manager-service/src/main/resources/script/meta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCC110-4CAF-F54F-9316-1B9117046D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1240" windowWidth="31320" windowHeight="15900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -91,7 +85,26 @@
     <t>choerodon.route.statistics.menu-report</t>
   </si>
   <si>
+    <t>/manager/site-statistics</t>
+  </si>
+  <si>
     <t>菜单分析路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.statistics.api</t>
+  </si>
+  <si>
+    <t>/manager/api-statistics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平台接口统计路由</t>
+    </r>
   </si>
   <si>
     <t>IAM_MENU_B</t>
@@ -130,7 +143,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>SORT</t>
     </r>
@@ -178,6 +191,18 @@
     <t>API</t>
   </si>
   <si>
+    <t>choerodon.code.site.api-statistics</t>
+  </si>
+  <si>
+    <t>API统计</t>
+  </si>
+  <si>
+    <t>API Statistics</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
     <t>choerodon.code.site.menu-report</t>
   </si>
   <si>
@@ -238,53 +263,20 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>choerodon.code.site.api-statistics</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>API统计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>API Statistics</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.statistics.api</t>
-  </si>
-  <si>
-    <t>choerodon.route.statistics.api</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager/site-statistics</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager/api-statistics</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
-      </rPr>
-      <t>平台接口统计路由</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashboard</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>role/site/default/developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -292,65 +284,388 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="DejaVu Sans"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -358,33 +673,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -642,187 +1243,187 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.6" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="3.796875" customWidth="1"/>
+    <col min="3" max="3" width="3.8" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="43.3984375" customWidth="1"/>
-    <col min="7" max="7" width="33.796875" customWidth="1"/>
+    <col min="5" max="5" width="8.6" customWidth="1"/>
+    <col min="6" max="6" width="43.4" customWidth="1"/>
+    <col min="7" max="7" width="33.8" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.2" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.796875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="18.8" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="13" customHeight="1">
-      <c r="D7" s="1" t="s">
+    <row r="7" ht="13" customHeight="1" spans="4:15">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="14">
+    <row r="8" spans="4:14">
       <c r="D8" s="4"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
-      <c r="F9" s="2" t="s">
+    <row r="9" spans="6:14">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="6:14">
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
-      <c r="F11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="2" t="s">
+    <row r="11" spans="6:14">
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11">
@@ -830,9 +1431,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -841,113 +1441,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:P12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="45.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.4" customWidth="1"/>
+    <col min="2" max="2" width="5.2" customWidth="1"/>
+    <col min="3" max="3" width="3.4" customWidth="1"/>
+    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="5" max="5" width="8.6" customWidth="1"/>
+    <col min="6" max="6" width="45.2" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="28.19921875" customWidth="1"/>
+    <col min="8" max="8" width="28.2" customWidth="1"/>
     <col min="9" max="9" width="59" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="34.19921875" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.796875" customWidth="1"/>
-    <col min="14" max="14" width="18.796875" customWidth="1"/>
-    <col min="15" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="18.6" customWidth="1"/>
+    <col min="11" max="11" width="34.2" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="14.8" customWidth="1"/>
+    <col min="14" max="14" width="18.8" customWidth="1"/>
+    <col min="15" max="1025" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="7" customHeight="1" spans="4:16">
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>30</v>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="19">
+    <row r="8" ht="14.25" spans="4:15">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O8" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:16" ht="19">
+    <row r="9" ht="14.25" spans="6:15">
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>12</v>
@@ -956,30 +1557,30 @@
         <v>14</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16" ht="19">
+    <row r="10" ht="14.25" spans="6:15">
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>18</v>
@@ -988,62 +1589,62 @@
         <v>14</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O10" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:16" ht="19">
+    <row r="11" ht="14.25" spans="6:15">
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="O11" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:16" ht="19">
+    <row r="12" ht="14.25" spans="6:15">
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>21</v>
@@ -1052,25 +1653,24 @@
         <v>14</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O12" s="5">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1079,160 +1679,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="5.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="2" max="3" width="5.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="8.6" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
-    <col min="8" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="8" max="1025" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="7" customHeight="1" spans="4:8">
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="19">
+    <row r="8" ht="14.25" spans="4:7">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="19">
+    <row r="9" ht="14.25" spans="4:7">
       <c r="D9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="4:7">
       <c r="D10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="19">
+    <row r="12" ht="14.25" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="6:7">
       <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="6:7">
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="6:7">
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="19">
-      <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="19">
-      <c r="F16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="19">
+    </row>
+    <row r="17" ht="14.25" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" ht="19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" ht="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="6:7" ht="19">
+    <row r="20" ht="14.25" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" ht="19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1241,74 +1841,104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.6" customWidth="1"/>
+    <col min="2" max="2" width="5.4" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="28.3984375" customWidth="1"/>
-    <col min="7" max="7" width="44.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625"/>
+    <col min="6" max="6" width="28.4" customWidth="1"/>
+    <col min="7" max="7" width="44.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6"/>
   </cols>
   <sheetData>
+    <row r="4" spans="6:6">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="6:6">
+      <c r="F5" s="1"/>
+    </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="F8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
-      <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
+    <row r="9" spans="6:7">
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
-      <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
+    <row r="10" spans="6:7">
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>70</v>
+    <row r="11" spans="6:7">
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="23955" windowHeight="11670" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -271,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -320,6 +320,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -328,23 +388,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,93 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,21 +470,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -480,13 +480,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +564,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,157 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,7 +713,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +721,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,15 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -771,151 +756,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,8 +1445,8 @@
   <sheetPr/>
   <dimension ref="D7:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1509,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:15">
+    <row r="8" ht="15" spans="4:15">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>36</v>
@@ -1540,7 +1540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="6:15">
+    <row r="9" ht="15" spans="6:15">
       <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="6:15">
+    <row r="10" ht="15" spans="6:15">
       <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1601,10 +1601,10 @@
         <v>49</v>
       </c>
       <c r="O10" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="6:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
@@ -1633,10 +1633,10 @@
         <v>53</v>
       </c>
       <c r="O11" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="6:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>57</v>
       </c>
       <c r="O12" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:7">
+    <row r="8" ht="15" spans="4:7">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>42</v>
@@ -1724,7 +1724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="4:7">
+    <row r="9" ht="15" spans="4:7">
       <c r="D9" s="4"/>
       <c r="F9" s="5" t="s">
         <v>42</v>
@@ -1733,7 +1733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="4:7">
+    <row r="10" ht="15" spans="4:7">
       <c r="D10" s="4"/>
       <c r="F10" s="5" t="s">
         <v>42</v>
@@ -1742,7 +1742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="6:7">
+    <row r="11" ht="15" spans="6:7">
       <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="6:7">
+    <row r="12" ht="15" spans="6:7">
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="6:7">
+    <row r="13" ht="15" spans="6:7">
       <c r="F13" s="5" t="s">
         <v>47</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="6:7">
+    <row r="14" ht="15" spans="6:7">
       <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:7">
+    <row r="15" ht="15" spans="6:7">
       <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="6:7">
+    <row r="16" ht="15" spans="6:7">
       <c r="F16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="6:7">
+    <row r="17" ht="15" spans="6:7">
       <c r="F17" s="5" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="6:7">
+    <row r="18" ht="15" spans="6:7">
       <c r="F18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="6:7">
+    <row r="19" ht="15" spans="6:7">
       <c r="F19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="6:7">
+    <row r="20" ht="15" spans="6:7">
       <c r="F20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="6:7">
+    <row r="21" ht="15" spans="6:7">
       <c r="F21" s="5" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1845,7 @@
   <sheetPr/>
   <dimension ref="D4:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId4"/>
-    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId5"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId6"/>
-    <sheet name="IAM_ROLE_PERMISSION" sheetId="4" r:id="rId7"/>
+    <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
+    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -99,6 +102,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>平台接口统计路由</t>
     </r>
@@ -139,6 +143,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
       </rPr>
       <t>@</t>
     </r>
@@ -147,6 +152,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>SORT</t>
     </r>
@@ -239,6 +245,9 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
     <t>manager-service.instance.query</t>
   </si>
   <si>
@@ -267,6 +276,36 @@
   </si>
   <si>
     <t>base-service.menu.menuConfig</t>
+  </si>
+  <si>
+    <t>manager-service.host.pagingHosts</t>
+  </si>
+  <si>
+    <t>manager-service.route-rule.listRouteRules</t>
+  </si>
+  <si>
+    <t>manager-service.host.saveHost</t>
+  </si>
+  <si>
+    <t>manager-service.route-rule.checkCode</t>
+  </si>
+  <si>
+    <t>manager-service.route-rule.createRouteRule</t>
+  </si>
+  <si>
+    <t>manager-service.route-rule.updateRouteRule</t>
+  </si>
+  <si>
+    <t>manager-service.route-rule.routeRuleDeleteById</t>
+  </si>
+  <si>
+    <t>manager-service.route-rule.queryRouteRuleDetailById</t>
+  </si>
+  <si>
+    <t>manager-service.host.listHosts</t>
+  </si>
+  <si>
+    <t>base-service.user.listEnableUsersByRouteRuleCode</t>
   </si>
   <si>
     <t>IAM_ROLE_PERMISSION</t>
@@ -285,70 +324,396 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="DejaVu Serif"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Droid Sans Fallback"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="DejaVu Sans"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="PingFang SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="PingFang SC Regular"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,89 +736,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,8 +1327,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -673,8 +1346,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,10 +1355,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -703,8 +1375,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,8 +1400,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,8 +1425,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,8 +1450,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,8 +1475,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,8 +1500,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,8 +1525,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,8 +1550,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,8 +1575,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,9 +1588,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -941,8 +1610,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -962,8 +1629,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,8 +1654,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,8 +1679,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,8 +1704,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,8 +1729,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,8 +1754,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,8 +1779,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,8 +1804,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,8 +1829,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,8 +1854,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,9 +1867,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1223,8 +1886,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1244,8 +1905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,10 +1914,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1274,8 +1934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,8 +1959,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,8 +1984,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,8 +2009,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,8 +2034,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,8 +2059,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,8 +2084,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,8 +2109,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,8 +2134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,9 +2147,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1507,32 +2164,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.60156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.8125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.80952380952381" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.60156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.4219" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.8125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.4190476190476" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.8095238095238" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2109" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.2095238095238" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2109" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4219" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.8095238095238" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.4190476190476" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="256" width="9" style="1" customWidth="1"/>
+    <col min="16" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1549,7 +2210,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1566,7 +2227,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1583,7 +2244,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1600,7 +2261,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1617,7 +2278,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1634,225 +2295,225 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="13" customHeight="1">
+    <row r="7" ht="13" customHeight="1" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s" s="3">
+      <c r="J7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="s" s="3">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s" s="3">
+      <c r="L7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s" s="3">
+      <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s" s="3">
+      <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s" s="3">
+      <c r="O7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="4">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s" s="4">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s" s="4">
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s" s="4">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s" s="5">
+      <c r="J8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s" s="4">
+      <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="12">
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="4">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s" s="4">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s" s="8">
+      <c r="J9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s" s="4">
+      <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="12">
         <v>0</v>
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="4">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s" s="4">
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s" s="8">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" t="s" s="4">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="12">
         <v>0</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="13">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="12">
         <v>0</v>
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="4">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s" s="4">
+      <c r="J11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K11" t="s" s="4">
+      <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="12">
         <v>0</v>
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" t="s" s="4">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s" s="4">
+      <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s" s="4">
+      <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="12">
         <v>0</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="12">
         <v>0</v>
       </c>
       <c r="O12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -1861,32 +2522,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.42188" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.21094" style="9" customWidth="1"/>
-    <col min="3" max="3" width="3.42188" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.2109" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.60156" style="9" customWidth="1"/>
-    <col min="6" max="6" width="45.2109" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14" style="9" customWidth="1"/>
-    <col min="8" max="8" width="28.2109" style="9" customWidth="1"/>
-    <col min="9" max="9" width="59" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.6016" style="9" customWidth="1"/>
-    <col min="11" max="11" width="34.2109" style="9" customWidth="1"/>
-    <col min="12" max="12" width="19.2109" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.8125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.8125" style="9" customWidth="1"/>
-    <col min="15" max="16" width="8.60156" style="9" customWidth="1"/>
-    <col min="17" max="256" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.41904761904762" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.20952380952381" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.41904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.2095238095238" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.2095238095238" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.2095238095238" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.2095238095238" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8095238095238" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.8095238095238" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.6" style="1" customWidth="1"/>
+    <col min="17" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:16">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1904,7 +2569,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1922,7 +2587,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1940,7 +2605,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1958,7 +2623,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1976,7 +2641,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:16">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1994,279 +2659,279 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s" s="3">
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s" s="3">
+      <c r="K7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s" s="3">
+      <c r="L7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s" s="3">
+      <c r="M7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s" s="4">
+      <c r="N7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O7" t="s" s="3">
+      <c r="O7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P7" t="s" s="3">
+      <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:16">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="10">
+      <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s" s="10">
+      <c r="G8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s" s="10">
+      <c r="H8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" t="s" s="10">
+      <c r="I8" s="9"/>
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s" s="10">
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s" s="10">
+      <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s" s="10">
+      <c r="M8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s" s="10">
+      <c r="N8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>30</v>
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:16">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="10">
+      <c r="F9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s" s="13">
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s" s="10">
+      <c r="H9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s" s="10">
+      <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s" s="10">
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s" s="10">
+      <c r="K9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s" s="10">
+      <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M9" t="s" s="10">
+      <c r="M9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N9" t="s" s="10">
+      <c r="N9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>10</v>
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="10">
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s" s="10">
+      <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s" s="10">
+      <c r="H10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s" s="10">
+      <c r="I10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s" s="10">
+      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s" s="10">
+      <c r="K10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s" s="10">
+      <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M10" t="s" s="10">
+      <c r="M10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N10" t="s" s="10">
+      <c r="N10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>20</v>
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s" s="10">
+      <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s" s="10">
+      <c r="H11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I11" t="s" s="10">
+      <c r="I11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J11" t="s" s="10">
+      <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K11" t="s" s="10">
+      <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L11" t="s" s="10">
+      <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M11" t="s" s="10">
+      <c r="M11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N11" t="s" s="10">
+      <c r="N11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>30</v>
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" t="s" s="10">
+      <c r="F12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s" s="10">
+      <c r="G12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s" s="10">
+      <c r="H12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s" s="10">
+      <c r="I12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J12" t="s" s="10">
+      <c r="J12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K12" t="s" s="10">
+      <c r="K12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L12" t="s" s="10">
+      <c r="L12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M12" t="s" s="10">
+      <c r="M12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N12" t="s" s="10">
+      <c r="N12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="10">
         <v>40</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" t="s" s="10">
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" t="s" s="10">
+      <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H13" t="s" s="10">
+      <c r="H13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I13" t="s" s="10">
+      <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s" s="10">
+      <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K13" t="s" s="10">
+      <c r="K13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L13" t="s" s="10">
+      <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M13" t="s" s="10">
+      <c r="M13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N13" t="s" s="10">
+      <c r="N13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <v>50</v>
       </c>
       <c r="P13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_B</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2275,24 +2940,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8" style="14" customWidth="1"/>
-    <col min="2" max="3" width="5.60156" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23.8125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.60156" style="14" customWidth="1"/>
-    <col min="6" max="6" width="45" style="14" customWidth="1"/>
-    <col min="7" max="7" width="58" style="14" customWidth="1"/>
-    <col min="8" max="8" width="8.60156" style="14" customWidth="1"/>
-    <col min="9" max="256" width="9" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8095238095238" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6" customWidth="1"/>
+    <col min="10" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2302,7 +2972,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2312,7 +2982,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2322,7 +2992,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2332,7 +3002,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2342,7 +3012,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2352,251 +3022,429 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+      <c r="I7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="10">
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s" s="10">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="10">
+      <c r="F9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s" s="10">
-        <v>67</v>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="10">
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s" s="10">
-        <v>68</v>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s" s="10">
+      <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" t="s" s="10">
+      <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s" s="10">
-        <v>69</v>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" t="s" s="10">
+      <c r="F13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s" s="10">
-        <v>70</v>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="10">
+      <c r="F14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s" s="10">
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="10">
+      <c r="F15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s" s="10">
-        <v>71</v>
+      <c r="G15" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" t="s" s="10">
+      <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s" s="10">
-        <v>72</v>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" t="s" s="10">
+      <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G17" t="s" s="10">
-        <v>73</v>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" t="s" s="10">
+      <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" t="s" s="10">
-        <v>74</v>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" t="s" s="10">
+      <c r="F19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G19" t="s" s="10">
+      <c r="G19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" t="s" s="10">
+      <c r="F20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G20" t="s" s="10">
-        <v>75</v>
+      <c r="G20" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" t="s" s="10">
+      <c r="F21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G21" t="s" s="10">
-        <v>76</v>
+      <c r="G21" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" t="s" s="10">
+      <c r="F22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G22" t="s" s="10">
+      <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" t="s" s="10">
+      <c r="F23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:9">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:9">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2605,24 +3453,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.60156" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.42188" style="15" customWidth="1"/>
-    <col min="3" max="3" width="7" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8" style="15" customWidth="1"/>
-    <col min="6" max="6" width="28.4219" style="15" customWidth="1"/>
-    <col min="7" max="7" width="44.2109" style="15" customWidth="1"/>
-    <col min="8" max="256" width="9" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.41904761904762" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.4190476190476" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.2095238095238" style="1" customWidth="1"/>
+    <col min="8" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2631,7 +3483,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2640,7 +3492,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2649,25 +3501,25 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2676,130 +3528,130 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s" s="3">
+      <c r="D7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="3">
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s" s="4">
+      <c r="F8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s" s="4">
+      <c r="F9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s" s="4">
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s" s="4">
+      <c r="F11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s" s="4">
+      <c r="F12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s" s="4">
+      <c r="F13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s" s="4">
+      <c r="F14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s" s="4">
+      <c r="F15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000IAM_ROLE_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -327,8 +327,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -368,9 +368,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,8 +443,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +474,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -406,22 +489,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,84 +518,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -528,13 +528,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,133 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +733,36 @@
       </top>
       <bottom style="thin">
         <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,15 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -796,21 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -820,165 +826,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2168,8 +2168,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
@@ -2526,8 +2526,8 @@
   <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
@@ -2944,8 +2944,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
@@ -3058,7 +3058,9 @@
         <v>12</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="2"/>
@@ -3073,7 +3075,9 @@
         <v>68</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="2"/>
@@ -3088,7 +3092,9 @@
         <v>69</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="2"/>
@@ -3103,7 +3109,9 @@
         <v>18</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="2"/>
@@ -3118,7 +3126,9 @@
         <v>70</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="2"/>
@@ -3133,7 +3143,9 @@
         <v>71</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="2"/>
@@ -3148,7 +3160,9 @@
         <v>24</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="2"/>
@@ -3163,7 +3177,9 @@
         <v>72</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="2"/>
@@ -3178,7 +3194,9 @@
         <v>73</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="2"/>
@@ -3193,7 +3211,9 @@
         <v>74</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="2"/>
@@ -3208,7 +3228,9 @@
         <v>75</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="2"/>
@@ -3223,7 +3245,9 @@
         <v>21</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="2"/>
@@ -3238,7 +3262,9 @@
         <v>76</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="2"/>
@@ -3253,7 +3279,9 @@
         <v>77</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="2"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\manager-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30379F83-71C8-4CFF-8EB0-281241B200F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -138,26 +144,6 @@
     <t>ICON</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SORT</t>
-    </r>
-  </si>
-  <si>
     <t>choerodon.code.site.operation</t>
   </si>
   <si>
@@ -318,19 +304,17 @@
   </si>
   <si>
     <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -341,379 +325,49 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="PingFang SC Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -736,251 +390,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -999,57 +411,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1122,6 +487,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1328,7 +696,7 @@
           <a:miter lim="800000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1611,7 +979,7 @@
           <a:miter lim="800000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1887,7 +1255,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2160,40 +1528,40 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.80952380952381" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.4190476190476" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.8095238095238" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8095238095238" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4190476190476" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="1" customWidth="1"/>
     <col min="16" max="32" width="9" style="1" customWidth="1"/>
-    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2210,7 +1578,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2227,7 +1595,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2244,7 +1612,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2261,7 +1629,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2278,7 +1646,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2295,7 +1663,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="13" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" ht="12.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2336,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:15">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2371,7 +1739,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:15">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2406,7 +1774,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:15">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2441,7 +1809,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:15">
+    <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2476,7 +1844,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2512,8 +1880,9 @@
       <c r="O12" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2522,36 +1891,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.41904761904762" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.20952380952381" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.41904761904762" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.2095238095238" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.2095238095238" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.2095238095238" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="59" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.2095238095238" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.8095238095238" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.8095238095238" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5703125" style="1" customWidth="1"/>
     <col min="17" max="32" width="9" style="1" customWidth="1"/>
-    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2569,7 +1937,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:16">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2587,7 +1955,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:16">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2605,7 +1973,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:16">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2623,7 +1991,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:16">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2641,7 +2009,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:16">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2659,7 +2027,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:16">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2696,63 +2064,63 @@
       <c r="N7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>37</v>
+      <c r="O7" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:16">
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="O8" s="10">
         <v>30</v>
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:16">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -2761,36 +2129,36 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="O9" s="10">
         <v>10</v>
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:16">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
@@ -2799,36 +2167,36 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="10">
         <v>20</v>
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:16">
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>24</v>
@@ -2837,36 +2205,36 @@
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O11" s="10">
         <v>30</v>
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:16">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>21</v>
@@ -2875,36 +2243,36 @@
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12" s="10">
         <v>40</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:16">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>27</v>
@@ -2913,16 +2281,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="10">
         <v>50</v>
@@ -2930,8 +2298,9 @@
       <c r="P13" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_B</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2940,29 +2309,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8095238095238" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="45" style="1" customWidth="1"/>
     <col min="7" max="7" width="58" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="6" customWidth="1"/>
     <col min="10" max="32" width="9" style="1" customWidth="1"/>
-    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2972,7 +2340,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:8">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2982,7 +2350,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:8">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2992,7 +2360,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3002,7 +2370,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3012,7 +2380,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3022,37 +2390,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -3062,48 +2430,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -3113,48 +2481,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -3164,82 +2532,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:9">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>21</v>
@@ -3249,48 +2617,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -3300,170 +2668,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:9">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:9">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2">
@@ -3471,8 +2839,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -3481,28 +2850,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.41904761904762" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.4190476190476" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.2095238095238" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="1" customWidth="1"/>
     <col min="8" max="32" width="9" style="1" customWidth="1"/>
-    <col min="33" max="256" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="33" max="256" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3511,7 +2877,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3520,7 +2886,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3529,7 +2895,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3538,7 +2904,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3547,7 +2913,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3556,130 +2922,131 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000IAM_ROLE_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
